--- a/Take2.xlsx
+++ b/Take2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\carni_000\Documents\DasProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="13395" windowHeight="3660" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="13395" windowHeight="3660" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cheat Sheet" sheetId="4" r:id="rId1"/>
@@ -23,16 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="318">
-  <si>
-    <t>Card No.</t>
-  </si>
-  <si>
-    <t>Card Name</t>
-  </si>
-  <si>
-    <t>Card Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="320">
   <si>
     <t>Level</t>
   </si>
@@ -61,24 +52,15 @@
     <t>CA</t>
   </si>
   <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
     <t>Anime</t>
   </si>
   <si>
     <t>Rarity</t>
   </si>
   <si>
-    <t>Flavour Text</t>
-  </si>
-  <si>
     <t>Shinobu?</t>
   </si>
   <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
     <t>Strange</t>
   </si>
   <si>
@@ -112,12 +94,6 @@
     <t>Attack Declaration</t>
   </si>
   <si>
-    <t>Effect Indicator 1</t>
-  </si>
-  <si>
-    <t>Condition Indicator 1</t>
-  </si>
-  <si>
     <t>CLXA</t>
   </si>
   <si>
@@ -754,9 +730,6 @@
     <t>MAIN</t>
   </si>
   <si>
-    <t>Cost Indicator 1</t>
-  </si>
-  <si>
     <t>RST2</t>
   </si>
   <si>
@@ -977,6 +950,39 @@
   </si>
   <si>
     <t>(Effect Indicator) soul to all characters</t>
+  </si>
+  <si>
+    <t>CostIndicator1</t>
+  </si>
+  <si>
+    <t>ConditionIndicator1</t>
+  </si>
+  <si>
+    <t>EffectIndicator1</t>
+  </si>
+  <si>
+    <t>CardNo</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>CardNum</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>FlavourText</t>
+  </si>
+  <si>
+    <t>Attribute2</t>
+  </si>
+  <si>
+    <t>Attribute1</t>
+  </si>
+  <si>
+    <t>CardType</t>
   </si>
 </sst>
 </file>
@@ -1354,464 +1360,464 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1823,9 +1829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C125:C126"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,1021 +1848,1021 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I107" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D109" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2865,403 +2871,403 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I109" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E111" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F111" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I113" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G115" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I116" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I117" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
+        <v>282</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
         <v>219</v>
       </c>
-      <c r="B118" t="s">
-        <v>291</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>227</v>
-      </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" t="s">
+        <v>293</v>
+      </c>
+      <c r="C119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" t="s">
+        <v>219</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
         <v>220</v>
       </c>
-      <c r="B119" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" t="s">
-        <v>86</v>
-      </c>
-      <c r="D119" t="s">
-        <v>227</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s">
-        <v>228</v>
-      </c>
       <c r="I119" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I123" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3270,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,33 +3309,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3349,10 +3355,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3372,10 +3378,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3395,10 +3401,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3418,10 +3424,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3441,10 +3447,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3464,10 +3470,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3487,564 +3493,564 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4064,10 +4070,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4087,10 +4093,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -4110,10 +4116,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4133,10 +4139,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4156,10 +4162,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4179,10 +4185,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4202,10 +4208,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4225,10 +4231,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4248,10 +4254,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4271,10 +4277,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -4294,10 +4300,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -4317,10 +4323,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -4340,10 +4346,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4355,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4363,10 +4369,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4386,10 +4392,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4409,10 +4415,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4432,10 +4438,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4455,10 +4461,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4487,7 +4493,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,54 +4510,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4559,25 +4565,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4585,19 +4591,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4611,19 +4617,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4637,25 +4643,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4663,25 +4669,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4689,19 +4695,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4715,19 +4721,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4741,565 +4747,565 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E106" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5308,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5316,19 +5322,19 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5345,19 +5351,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5374,19 +5380,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5403,19 +5409,19 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D110">
         <v>500</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5432,19 +5438,19 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5461,10 +5467,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5490,19 +5496,19 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D113">
         <v>1000</v>
       </c>
       <c r="E113" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5519,28 +5525,28 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>265</v>
+      </c>
+      <c r="E114" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" t="s">
+        <v>268</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
         <v>271</v>
-      </c>
-      <c r="C114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D114" t="s">
-        <v>274</v>
-      </c>
-      <c r="E114" t="s">
-        <v>275</v>
-      </c>
-      <c r="F114" t="s">
-        <v>277</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>280</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5548,10 +5554,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5577,25 +5583,25 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D116">
         <v>1000</v>
       </c>
       <c r="E116" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5606,25 +5612,25 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D117">
         <v>1000</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5635,48 +5641,48 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
+        <v>283</v>
+      </c>
+      <c r="F118" t="s">
+        <v>255</v>
+      </c>
+      <c r="G118" t="s">
+        <v>289</v>
+      </c>
+      <c r="H118" t="s">
+        <v>290</v>
+      </c>
+      <c r="I118" t="s">
         <v>292</v>
-      </c>
-      <c r="F118" t="s">
-        <v>264</v>
-      </c>
-      <c r="G118" t="s">
-        <v>298</v>
-      </c>
-      <c r="H118" t="s">
-        <v>299</v>
-      </c>
-      <c r="I118" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C119" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5693,19 +5699,19 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D120">
         <v>1000</v>
       </c>
       <c r="E120" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5722,19 +5728,19 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5751,10 +5757,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5780,10 +5786,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5809,19 +5815,19 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5845,10 +5851,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5866,51 +5872,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5921,22 +5927,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5947,22 +5953,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5973,25 +5979,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5999,19 +6005,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6020,24 +6026,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6046,15 +6052,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6077,10 +6083,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6103,556 +6109,556 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6678,10 +6684,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6707,19 +6713,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D108">
         <v>2500</v>
       </c>
       <c r="E108" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -6728,18 +6734,18 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I108" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -6765,10 +6771,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -6794,10 +6800,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -6823,10 +6829,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -6852,28 +6858,28 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G113" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H113" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -6881,10 +6887,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -6910,10 +6916,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -6939,10 +6945,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -6968,10 +6974,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -6997,10 +7003,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -7026,10 +7032,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -7055,10 +7061,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -7084,10 +7090,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7113,10 +7119,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7142,10 +7148,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7171,10 +7177,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C124">
         <v>0</v>
